--- a/data2/portfolio_min_risk_no_short.xlsx
+++ b/data2/portfolio_min_risk_no_short.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.668793114042662e-18</v>
+        <v>8.191115064622072e-18</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.402336891395481e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.9508337617601e-18</v>
+        <v>2.637861236617057e-18</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.169197112513652e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.247758643247732e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.075626470378507e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0223699159222852</v>
+        <v>0.0293397299680501</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>9.964516315928008e-19</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.104826484711946e-19</v>
+        <v>2.206582755816914e-18</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.335138492205378e-17</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1357092310764738</v>
+        <v>0.1242669696252968</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3.377615051119878e-18</v>
       </c>
     </row>
     <row r="17">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.68539752595113e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07773203704619788</v>
+        <v>0.07035691606082364</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.24859579961272e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.988667641664573e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.183008443601866e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1205654948726482</v>
+        <v>0.1121593627377357</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2.81741002183871e-18</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.043146339137256e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1037832499621733</v>
+        <v>0.1078670493821004</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>4.068759754403245e-18</v>
       </c>
     </row>
     <row r="30">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.734533041699618e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.514320868127107e-18</v>
+        <v>5.889486739625472e-18</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0220400475709067</v>
+        <v>0.02262602944344694</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.976207711376139e-19</v>
+        <v>4.663083637972925e-18</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02558349579166655</v>
+        <v>0.03526033269644029</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02196106332383289</v>
+        <v>0.01415084953189176</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1219410362463615</v>
+        <v>0.1189297524597908</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.07948087109857509</v>
+        <v>0.06596603463736081</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>2.221921836205665e-17</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02888685971981433</v>
+        <v>0.04933318210257538</v>
       </c>
     </row>
     <row r="41">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1297610207252563</v>
+        <v>0.13573278575077</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.538250339870764e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.06350749461867644</v>
+        <v>0.06637694019961772</v>
       </c>
     </row>
     <row r="45">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.04398604234648033</v>
+        <v>0.03521209812160288</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.01615987719887e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.002692139678651232</v>
+        <v>0.01242196728249686</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>5.199317760728858e-18</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.824063015166672e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
